--- a/review.xlsx
+++ b/review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Programming\Python\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FFC243-2D3A-4F60-8F35-FA8C42B87585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A02675F-8442-4993-8683-BD09AC032081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -357,11 +357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +369,7 @@
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -383,7 +383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44928</v>
       </c>
@@ -397,7 +397,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44930</v>
       </c>
@@ -411,7 +411,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44931</v>
       </c>
@@ -425,7 +425,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44932</v>
       </c>
@@ -439,7 +439,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44933</v>
       </c>
@@ -453,7 +453,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44934</v>
       </c>
@@ -467,7 +467,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44938</v>
       </c>
@@ -478,7 +478,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44939</v>
       </c>
@@ -492,73 +492,183 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44940</v>
+      </c>
+      <c r="B10">
+        <v>1221</v>
+      </c>
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>44941</v>
+      </c>
+      <c r="B11">
+        <v>515</v>
+      </c>
+      <c r="C11">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44942</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>112</v>
+      </c>
+      <c r="D12">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>44944</v>
+      </c>
+      <c r="B13">
+        <v>896</v>
+      </c>
+      <c r="C13">
+        <v>121</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B14">
+        <v>231</v>
+      </c>
+      <c r="C14">
+        <v>208</v>
+      </c>
+      <c r="D14">
+        <v>252</v>
+      </c>
+      <c r="E14">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44947</v>
+      </c>
+      <c r="B15">
+        <v>953</v>
+      </c>
+      <c r="C15">
+        <v>567</v>
+      </c>
+      <c r="D15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44947</v>
+      </c>
+      <c r="B16">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>797</v>
+      </c>
+      <c r="D16">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44950</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>237</v>
+      </c>
+      <c r="D17">
+        <v>108</v>
+      </c>
+      <c r="E17">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B18">
+        <v>560</v>
+      </c>
+      <c r="C18">
+        <v>670</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44962</v>
+      </c>
+      <c r="B19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
